--- a/src/main/outputs/테이블정의서 및 기능정의서.xlsx
+++ b/src/main/outputs/테이블정의서 및 기능정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hee\Desktop\도서관\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EFDEBE-A201-4EBB-B27A-8C8BB79B5574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B44F101-1408-455D-9FDF-D33F469E5EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-86" yWindow="0" windowWidth="16629" windowHeight="17880" activeTab="1" xr2:uid="{EEAEDBD5-9E4D-45AC-BED4-A9B0A95FCBF2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{EEAEDBD5-9E4D-45AC-BED4-A9B0A95FCBF2}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블정의서" sheetId="1" r:id="rId1"/>
@@ -316,10 +316,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/book/return{bookId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>도서 상세</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -373,6 +369,10 @@
   </si>
   <si>
     <t>varchar(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/book/return?={bookhistoryid}&amp;bookid={bookid}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -818,6 +818,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -836,52 +875,13 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1211,33 +1211,33 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0703125" defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
-    <col min="2" max="3" width="14.42578125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.0703125" style="1"/>
+    <col min="2" max="3" width="14.3984375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="25"/>
-    </row>
-    <row r="2" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C1" s="38"/>
+    </row>
+    <row r="2" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="23"/>
-    </row>
-    <row r="3" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C2" s="36"/>
+    </row>
+    <row r="3" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="9" t="s">
         <v>19</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>22</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>26</v>
@@ -1283,7 +1283,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
         <v>34</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>26</v>
@@ -1301,7 +1301,7 @@
       <c r="G6" s="10"/>
       <c r="H6" s="11"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
         <v>35</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>26</v>
@@ -1319,7 +1319,7 @@
       <c r="G7" s="10"/>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="9" t="s">
         <v>61</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>26</v>
@@ -1337,7 +1337,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="12" t="s">
         <v>36</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>26</v>
@@ -1355,27 +1355,27 @@
       <c r="G9" s="13"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="13" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="25"/>
-    </row>
-    <row r="15" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C14" s="38"/>
+    </row>
+    <row r="15" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="23"/>
-    </row>
-    <row r="16" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" s="36"/>
+    </row>
+    <row r="16" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
         <v>11</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="9" t="s">
         <v>37</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>26</v>
@@ -1421,7 +1421,7 @@
       <c r="G18" s="10"/>
       <c r="H18" s="11"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="9" t="s">
         <v>38</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>31</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>26</v>
@@ -1439,7 +1439,7 @@
       <c r="G19" s="10"/>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="9" t="s">
         <v>39</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>32</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>26</v>
@@ -1457,7 +1457,7 @@
       <c r="G20" s="10"/>
       <c r="H20" s="11"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="10" t="s">
         <v>43</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>44</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>26</v>
@@ -1475,7 +1475,7 @@
       <c r="G21" s="10"/>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
         <v>40</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>33</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>26</v>
@@ -1493,7 +1493,7 @@
       <c r="G22" s="10"/>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="9" t="s">
         <v>42</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>41</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>26</v>
@@ -1511,15 +1511,15 @@
       <c r="G23" s="10"/>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="12" t="s">
         <v>56</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>26</v>
@@ -1529,27 +1529,27 @@
       <c r="G24" s="13"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="28" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="25"/>
-    </row>
-    <row r="30" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C29" s="38"/>
+    </row>
+    <row r="30" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="23"/>
-    </row>
-    <row r="31" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C30" s="36"/>
+    </row>
+    <row r="31" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="6" t="s">
         <v>11</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="9" t="s">
         <v>37</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>30</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>26</v>
@@ -1597,15 +1597,15 @@
       <c r="G33" s="10"/>
       <c r="H33" s="11"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>26</v>
@@ -1615,7 +1615,7 @@
       <c r="G34" s="10"/>
       <c r="H34" s="11"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="9" t="s">
         <v>19</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>22</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>26</v>
@@ -1633,7 +1633,7 @@
       <c r="G35" s="10"/>
       <c r="H35" s="11"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="9" t="s">
         <v>46</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>49</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>26</v>
@@ -1651,7 +1651,7 @@
       <c r="G36" s="10"/>
       <c r="H36" s="11"/>
     </row>
-    <row r="37" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="12" t="s">
         <v>47</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>48</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>26</v>
@@ -1689,20 +1689,20 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0703125" defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.0703125" style="2"/>
+    <col min="1" max="1" width="9.09765625" style="2"/>
     <col min="2" max="2" width="18.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.0703125" style="1"/>
-    <col min="4" max="4" width="43.0703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.78515625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.0703125" style="1"/>
+    <col min="3" max="3" width="9.09765625" style="1"/>
+    <col min="4" max="4" width="43.09765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.796875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>50</v>
       </c>
@@ -1719,8 +1719,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="39" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -1736,8 +1736,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="27"/>
+    <row r="3" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="40"/>
       <c r="B3" s="19" t="s">
         <v>52</v>
       </c>
@@ -1751,136 +1751,136 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="27" t="s">
         <v>69</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="26"/>
-      <c r="B5" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="38" t="s">
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="39"/>
+      <c r="B5" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="39" t="s">
+      <c r="D5" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="30" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="26"/>
-      <c r="B6" s="32" t="s">
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="39"/>
+      <c r="B6" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="24" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="25" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="26"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="30" t="s">
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="39"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="39"/>
+      <c r="B8" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="26"/>
-      <c r="B8" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="33" t="s">
+      <c r="E8" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="39"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="39"/>
+      <c r="B10" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="26"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30" t="s">
+      <c r="D10" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="39"/>
+      <c r="B11" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D11" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="26"/>
-      <c r="B10" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="26"/>
-      <c r="B11" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="38" t="s">
+      <c r="E11" s="31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="40"/>
+      <c r="B12" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="27"/>
-      <c r="B12" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="42" t="s">
+      <c r="D12" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="33" t="s">
         <v>8</v>
       </c>
     </row>
